--- a/Statystyki_2018/Template/oglp.xlsx
+++ b/Statystyki_2018/Template/oglp.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\myProjects\prv\Statystyki_2018Test\Statystyki_2018\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo\priv\Statystyki\Statystyki_2018\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{654CE14A-233E-4125-9243-1D100EA50013}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5578F5F-DECE-436D-A776-E1D6EBDDAED4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -664,7 +664,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -697,9 +697,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -732,6 +729,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -804,9 +807,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -890,9 +896,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Pakiet Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -930,7 +936,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Pakiet Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1036,7 +1042,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Pakiet Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1199,35 +1205,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="27"/>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
+      <c r="A1" s="28"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
     </row>
     <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
     </row>
     <row r="3" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="28"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1271,7 +1277,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1284,53 +1290,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="32"/>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
+      <c r="A1" s="33"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
     </row>
     <row r="3" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
     </row>
     <row r="4" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31" t="s">
+      <c r="A4" s="32"/>
+      <c r="B4" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="37"/>
     </row>
     <row r="5" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="31"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="38"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="39"/>
       <c r="D5" s="11" t="s">
         <v>79</v>
       </c>
@@ -1387,20 +1393,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
     </row>
     <row r="3" spans="2:14" ht="187.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="11" t="s">
@@ -1409,36 +1415,36 @@
       <c r="C3" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31" t="s">
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
     </row>
     <row r="4" spans="2:14" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="40" t="s">
+      <c r="C4" s="32"/>
+      <c r="D4" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="E4" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="31" t="s">
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="32" t="s">
         <v>32</v>
       </c>
       <c r="J4" s="11" t="s">
@@ -1456,9 +1462,9 @@
       <c r="N4" s="12"/>
     </row>
     <row r="5" spans="2:14" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B5" s="40"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="40"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="41"/>
       <c r="E5" s="11" t="s">
         <v>95</v>
       </c>
@@ -1471,25 +1477,25 @@
       <c r="H5" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="I5" s="31"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B6" s="40"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1530,47 +1536,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="E2" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
     </row>
     <row r="3" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B3" s="48"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="20" t="s">
+      <c r="B3" s="49"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="20" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1583,7 +1589,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="22"/>
+      <c r="H4" s="21"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
@@ -1594,7 +1600,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
-      <c r="H5" s="22"/>
+      <c r="H5" s="21"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
@@ -1605,10 +1611,10 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="22"/>
+      <c r="H6" s="21"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="22" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="5"/>
@@ -1616,65 +1622,65 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="24"/>
+      <c r="H7" s="23"/>
       <c r="J7" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="22"/>
+      <c r="H8" s="21"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
-      <c r="H9" s="22"/>
+      <c r="H9" s="21"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="22"/>
+      <c r="H10" s="21"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="22"/>
+      <c r="H11" s="21"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="24"/>
+      <c r="H12" s="23"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
@@ -1688,112 +1694,112 @@
       <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
     </row>
     <row r="15" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="25" t="s">
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="25" t="s">
+      <c r="F15" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G15" s="25" t="s">
+      <c r="G15" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="H15" s="26" t="s">
+      <c r="H15" s="25" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
-      <c r="H16" s="22"/>
+      <c r="H16" s="21"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
-      <c r="H17" s="22"/>
+      <c r="H17" s="21"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="22"/>
+      <c r="H18" s="21"/>
       <c r="J18" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
-      <c r="H19" s="22"/>
+      <c r="H19" s="21"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="22"/>
+      <c r="H20" s="21"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B21" s="41" t="s">
+      <c r="B21" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
-      <c r="H21" s="22"/>
+      <c r="H21" s="21"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B22" s="42" t="s">
+      <c r="B22" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
-      <c r="H22" s="24"/>
+      <c r="H22" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="19">
@@ -1827,12 +1833,12 @@
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
+    <col min="1" max="1" width="59.44140625" customWidth="1"/>
     <col min="2" max="2" width="14.88671875" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="14.5546875" customWidth="1"/>
@@ -1846,36 +1852,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="32"/>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
+      <c r="A1" s="33"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
     </row>
     <row r="3" spans="1:16" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31" t="s">
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="31" t="s">
+      <c r="G3" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31" t="s">
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="31" t="s">
+      <c r="K3" s="32" t="s">
         <v>28</v>
       </c>
       <c r="L3" s="11" t="s">
@@ -1887,8 +1893,8 @@
       <c r="P3" s="12"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
       <c r="C4" s="11" t="s">
         <v>30</v>
       </c>
@@ -1898,7 +1904,7 @@
       <c r="E4" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="31"/>
+      <c r="F4" s="32"/>
       <c r="G4" s="11" t="s">
         <v>5</v>
       </c>
@@ -1908,8 +1914,8 @@
       <c r="I4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
       <c r="L4" s="11" t="s">
         <v>5</v>
       </c>
@@ -1939,12 +1945,12 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.6640625" customWidth="1"/>
+    <col min="1" max="1" width="50.5546875" customWidth="1"/>
     <col min="2" max="2" width="23.44140625" customWidth="1"/>
     <col min="3" max="3" width="25.109375" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" customWidth="1"/>
@@ -1953,12 +1959,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="32"/>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
+      <c r="A1" s="33"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
@@ -1988,74 +1994,74 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <selection sqref="A1:J1"/>
+      <selection activeCell="B3" sqref="B3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.5546875" customWidth="1"/>
     <col min="2" max="2" width="18.33203125" customWidth="1"/>
-    <col min="3" max="3" width="8.5546875" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" customWidth="1"/>
     <col min="5" max="1023" width="8.5546875" customWidth="1"/>
     <col min="1024" max="1025" width="11.5546875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="33"/>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
+      <c r="A1" s="34"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
     </row>
     <row r="3" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="14"/>
-      <c r="B3" s="13" t="s">
+      <c r="A3" s="13"/>
+      <c r="B3" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="26" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2071,12 +2077,12 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.88671875" customWidth="1"/>
+    <col min="1" max="1" width="44.33203125" customWidth="1"/>
     <col min="2" max="2" width="20.21875" customWidth="1"/>
     <col min="3" max="3" width="23.21875" customWidth="1"/>
     <col min="4" max="1023" width="8.5546875" customWidth="1"/>
@@ -2084,23 +2090,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="33"/>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
+      <c r="A1" s="34"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
     </row>
     <row r="3" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="26" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2117,87 +2123,79 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView zoomScale="65" zoomScaleNormal="65" workbookViewId="0"/>
+    <sheetView zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.44140625" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" customWidth="1"/>
-    <col min="4" max="4" width="8.5546875" customWidth="1"/>
-    <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="8.5546875" customWidth="1"/>
-    <col min="7" max="7" width="10.5546875" customWidth="1"/>
-    <col min="8" max="8" width="8.5546875" customWidth="1"/>
-    <col min="9" max="9" width="13.109375" customWidth="1"/>
-    <col min="10" max="10" width="8.5546875" customWidth="1"/>
-    <col min="11" max="12" width="12" customWidth="1"/>
-    <col min="13" max="13" width="10.5546875" customWidth="1"/>
+    <col min="1" max="1" width="43" customWidth="1"/>
+    <col min="2" max="13" width="15.33203125" customWidth="1"/>
     <col min="14" max="1023" width="8.5546875" customWidth="1"/>
     <col min="1024" max="1025" width="11.5546875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="18"/>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
+      <c r="A1" s="17"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
     </row>
     <row r="3" spans="1:13" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="E3" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="F3" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="G3" s="31" t="s">
+      <c r="G3" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="31" t="s">
+      <c r="H3" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="31" t="s">
+      <c r="I3" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="J3" s="31" t="s">
+      <c r="J3" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="K3" s="31" t="s">
+      <c r="K3" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="L3" s="31" t="s">
+      <c r="L3" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="31"/>
-    </row>
-    <row r="4" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
+      <c r="M3" s="32"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
       <c r="L4" s="11" t="s">
         <v>51</v>
       </c>
@@ -2237,30 +2235,30 @@
   <dimension ref="A2:E2"/>
   <sheetViews>
     <sheetView zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD5"/>
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="1" max="1" width="50" customWidth="1"/>
     <col min="2" max="1023" width="8.5546875" customWidth="1"/>
     <col min="1024" max="1025" width="11.5546875"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="27" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2278,17 +2276,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" customWidth="1"/>
-    <col min="2" max="3" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="30.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" customWidth="1"/>
+    <col min="3" max="3" width="21.21875" customWidth="1"/>
     <col min="4" max="1023" width="8.5546875" customWidth="1"/>
     <col min="1024" max="1025" width="11.5546875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="19"/>
-    </row>
-    <row r="3" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="14"/>
+      <c r="A1" s="18"/>
+    </row>
+    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="13"/>
       <c r="B3" s="11" t="s">
         <v>54</v>
       </c>
@@ -2297,88 +2296,88 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -2388,59 +2387,60 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1023" width="8.5546875" customWidth="1"/>
+    <col min="1" max="11" width="18.44140625" customWidth="1"/>
+    <col min="12" max="1023" width="8.5546875" customWidth="1"/>
     <col min="1024" max="1025" width="11.5546875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="32"/>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
+      <c r="A1" s="33"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
     </row>
     <row r="3" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
     </row>
     <row r="4" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
     </row>
     <row r="5" spans="1:11" ht="23.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="38" t="s">
         <v>69</v>
       </c>
       <c r="B5" s="11" t="s">
@@ -2465,7 +2465,7 @@
       <c r="K5" s="11"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="31"/>
+      <c r="A6" s="39"/>
       <c r="B6" s="11" t="s">
         <v>69</v>
       </c>
@@ -2498,7 +2498,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="31"/>
+      <c r="A7" s="52"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
@@ -2510,25 +2510,12 @@
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A3:K3"/>
     <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A5:A6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
